--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>255454.3199791832</v>
+        <v>250838.7532943357</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30115494.72037426</v>
+        <v>30115494.72037425</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7417803.105110628</v>
+        <v>7417803.105110624</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.979937655612986</v>
+        <v>0.3067302431337132</v>
       </c>
       <c r="D2" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="E2" t="n">
-        <v>6.625631742405355</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>7.909529087063913</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>8.979937655612986</v>
@@ -837,49 +837,49 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>8.979937655612986</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.909529087063915</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="U4" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="V4" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>7.909529087063913</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04668504368034</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D5" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="E5" t="n">
-        <v>18.21830727030011</v>
+        <v>9.72841547677697</v>
       </c>
       <c r="F5" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,46 +986,46 @@
         <v>18.21830727030011</v>
       </c>
       <c r="F6" t="n">
+        <v>16.04668504368034</v>
+      </c>
+      <c r="G6" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,49 +1071,49 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="V7" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,10 +1141,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>19.7854405766944</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>3.291329466952372</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="S10" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>223.052792083495</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>263.6711928785803</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90453113913546</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>21.59636736628838</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>60.85448603044173</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>75.43872475250879</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
         <v>237.5909258267186</v>
@@ -1587,16 +1587,16 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>59.47465772795729</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>248.018292755166</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.32136466518995</v>
+        <v>63.32136466519077</v>
       </c>
       <c r="T15" t="n">
         <v>136.7309641056443</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>94.33848781303183</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>35.79216173202461</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>11.56587804842534</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>109.7445288158863</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>16.63007032188185</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>120.250176925149</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>48.67910626418636</v>
+        <v>122.8429554097731</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.01432013375645</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>105.5699445921944</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
@@ -2320,22 +2320,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>78.82066195620868</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>48.4340990585243</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.7125968943562</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6068149142082</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>118.888600400617</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>65.95325390533277</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.1553975250214</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.02525824528217</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.3549902817076</v>
       </c>
       <c r="T25" t="n">
         <v>236.9638613592469</v>
@@ -2560,16 +2560,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>116.8016763583188</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>2.777725577682345</v>
       </c>
     </row>
     <row r="27">
@@ -2721,13 +2721,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>100.8041123026467</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6717825127903</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>134.1553975250214</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.083989590429127</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.3549902817076</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.9638613592469</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3322794240122</v>
       </c>
       <c r="V28" t="n">
-        <v>194.0150898870668</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.238854344651</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>273.825313114924</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>56.4538937306908</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>90.1694179541262</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>318.1251806227078</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>42.66967155821735</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>100.9907531924517</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.02525824528217</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.083989590429127</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.3549902817076</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.9638613592469</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.238854344651</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>273.825313114924</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>56.4538937306908</v>
       </c>
       <c r="T32" t="n">
-        <v>209.7125968943562</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6068149142082</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.777725577683245</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>245.2332050168001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>81.22893425172941</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6717825127903</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>134.1553975250214</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.083989590429127</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.3549902817076</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.9638613592469</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3322794240122</v>
+        <v>20.78738656445246</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3271,19 +3271,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.238854344651</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>43.18760848771661</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>2.777725577683245</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>77.31849756491877</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3435,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6717825127903</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.1553975250214</v>
       </c>
       <c r="I37" t="n">
-        <v>71.02525824528217</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.083989590429127</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.3549902817076</v>
       </c>
       <c r="T37" t="n">
         <v>236.9638613592469</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3322794240122</v>
       </c>
       <c r="V37" t="n">
-        <v>91.20662605284123</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>144.6022931113728</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>273.825313114924</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.777725577683245</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>92.02546200551404</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6717825127903</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.1553975250214</v>
+        <v>106.5877858869619</v>
       </c>
       <c r="I40" t="n">
-        <v>71.02525824528217</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.3549902817076</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.9638613592469</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3754,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>357.5214189038494</v>
+        <v>59.23161930837335</v>
       </c>
       <c r="H41" t="n">
-        <v>273.825313114924</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>56.4538937306908</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.7125968943562</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>50.88704080609537</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.1553975250214</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.02525824528217</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>29.96549494716905</v>
       </c>
       <c r="T43" t="n">
         <v>236.9638613592469</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.238854344651</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>56.4538937306908</v>
       </c>
       <c r="T44" t="n">
-        <v>209.7125968943562</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.777725577683245</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>285.9897433248302</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>95.90676360202168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.9532539053332</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.1553975250214</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.02525824528217</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.083989590429127</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.55224052116755</v>
+        <v>28.24015583060325</v>
       </c>
       <c r="C2" t="n">
-        <v>16.48159642458878</v>
+        <v>27.93032730218536</v>
       </c>
       <c r="D2" t="n">
-        <v>7.410952328010005</v>
+        <v>18.85968320560659</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7183950124490389</v>
+        <v>9.789039109027813</v>
       </c>
       <c r="F2" t="n">
         <v>0.7183950124490389</v>
@@ -4336,19 +4336,19 @@
         <v>0.7183950124490389</v>
       </c>
       <c r="L2" t="n">
-        <v>9.608533291505895</v>
+        <v>3.29276997143486</v>
       </c>
       <c r="M2" t="n">
-        <v>17.61930504699458</v>
+        <v>11.30354172692354</v>
       </c>
       <c r="N2" t="n">
-        <v>26.50944332605143</v>
+        <v>20.1936800059804</v>
       </c>
       <c r="O2" t="n">
-        <v>32.73716885561249</v>
+        <v>29.08381828503725</v>
       </c>
       <c r="P2" t="n">
-        <v>35.91975062245194</v>
+        <v>29.08381828503725</v>
       </c>
       <c r="Q2" t="n">
         <v>35.91975062245194</v>
@@ -4372,10 +4372,10 @@
         <v>35.91975062245194</v>
       </c>
       <c r="X2" t="n">
-        <v>35.91975062245194</v>
+        <v>28.24015583060325</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.62288461774633</v>
+        <v>28.24015583060325</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>17.77846242929439</v>
       </c>
       <c r="D3" t="n">
-        <v>9.789039109027813</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="E3" t="n">
-        <v>9.789039109027813</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="F3" t="n">
-        <v>9.789039109027813</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="G3" t="n">
         <v>9.789039109027813</v>
@@ -4418,10 +4418,10 @@
         <v>8.2458079501616</v>
       </c>
       <c r="M3" t="n">
-        <v>13.46924090635374</v>
+        <v>17.13594622921845</v>
       </c>
       <c r="N3" t="n">
-        <v>22.3593791854106</v>
+        <v>26.02608450827531</v>
       </c>
       <c r="O3" t="n">
         <v>31.24951746446745</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="C4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="D4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="E4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="F4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="G4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="H4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="I4" t="n">
         <v>0.7183950124490389</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7183950124490389</v>
+        <v>9.608533291505895</v>
       </c>
       <c r="K4" t="n">
-        <v>9.608533291505895</v>
+        <v>18.49867157056275</v>
       </c>
       <c r="L4" t="n">
         <v>18.49867157056275</v>
       </c>
       <c r="M4" t="n">
-        <v>18.49867157056275</v>
+        <v>27.38880984961961</v>
       </c>
       <c r="N4" t="n">
-        <v>27.02961234339509</v>
+        <v>27.38880984961961</v>
       </c>
       <c r="O4" t="n">
-        <v>27.02961234339509</v>
+        <v>27.38880984961961</v>
       </c>
       <c r="P4" t="n">
-        <v>27.02961234339509</v>
+        <v>27.38880984961961</v>
       </c>
       <c r="Q4" t="n">
         <v>35.91975062245194</v>
       </c>
       <c r="R4" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="S4" t="n">
-        <v>35.91975062245194</v>
+        <v>26.84910652587317</v>
       </c>
       <c r="T4" t="n">
-        <v>27.93032730218536</v>
+        <v>17.77846242929439</v>
       </c>
       <c r="U4" t="n">
-        <v>18.85968320560659</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="V4" t="n">
-        <v>9.789039109027813</v>
+        <v>8.707818332715618</v>
       </c>
       <c r="W4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="X4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.789039109027813</v>
+        <v>0.7183950124490389</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.87322908120045</v>
+        <v>48.08880803352017</v>
       </c>
       <c r="C5" t="n">
-        <v>56.66445630980617</v>
+        <v>29.68647745745945</v>
       </c>
       <c r="D5" t="n">
-        <v>38.26212573374545</v>
+        <v>11.28414688139873</v>
       </c>
       <c r="E5" t="n">
-        <v>19.85979515768473</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F5" t="n">
         <v>1.457464581624009</v>
@@ -4576,10 +4576,10 @@
         <v>15.88227649088181</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886391</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N5" t="n">
-        <v>50.92952327646102</v>
+        <v>50.92952327646103</v>
       </c>
       <c r="O5" t="n">
         <v>65.79354395927301</v>
@@ -4609,10 +4609,10 @@
         <v>72.87322908120045</v>
       </c>
       <c r="X5" t="n">
-        <v>72.87322908120045</v>
+        <v>65.19363428935176</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.87322908120045</v>
+        <v>63.89676828464615</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="C6" t="n">
-        <v>56.66445630980617</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="D6" t="n">
-        <v>56.66445630980617</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="E6" t="n">
-        <v>38.26212573374545</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="F6" t="n">
         <v>19.85979515768473</v>
       </c>
       <c r="G6" t="n">
-        <v>19.85979515768473</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H6" t="n">
         <v>1.457464581624009</v>
@@ -4658,7 +4658,7 @@
         <v>37.4042989454709</v>
       </c>
       <c r="N6" t="n">
-        <v>55.44042314306801</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O6" t="n">
         <v>62.96599962173947</v>
@@ -4673,25 +4673,25 @@
         <v>72.87322908120045</v>
       </c>
       <c r="S6" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="T6" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U6" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="V6" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="W6" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="X6" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="Y6" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
     </row>
     <row r="7">
@@ -4707,40 +4707,40 @@
         <v>36.06856792907901</v>
       </c>
       <c r="D7" t="n">
-        <v>36.06856792907901</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="E7" t="n">
-        <v>36.06856792907901</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F7" t="n">
-        <v>36.06856792907901</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G7" t="n">
-        <v>36.06856792907901</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H7" t="n">
-        <v>19.85979515768473</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I7" t="n">
         <v>1.457464581624009</v>
       </c>
       <c r="J7" t="n">
-        <v>1.457464581624009</v>
+        <v>18.76485648840912</v>
       </c>
       <c r="K7" t="n">
-        <v>1.457464581624009</v>
+        <v>18.76485648840912</v>
       </c>
       <c r="L7" t="n">
-        <v>1.457464581624009</v>
+        <v>18.76485648840912</v>
       </c>
       <c r="M7" t="n">
-        <v>18.16978190060044</v>
+        <v>36.80098068600623</v>
       </c>
       <c r="N7" t="n">
-        <v>18.76485648840912</v>
+        <v>54.83710488360334</v>
       </c>
       <c r="O7" t="n">
-        <v>36.80098068600623</v>
+        <v>54.83710488360334</v>
       </c>
       <c r="P7" t="n">
         <v>54.83710488360334</v>
@@ -4755,10 +4755,10 @@
         <v>72.87322908120045</v>
       </c>
       <c r="T7" t="n">
-        <v>72.87322908120045</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47089850513973</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="V7" t="n">
         <v>36.06856792907901</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.06239103962324</v>
+        <v>69.25443078849722</v>
       </c>
       <c r="C8" t="n">
-        <v>62.20206509332742</v>
+        <v>46.3941048422014</v>
       </c>
       <c r="D8" t="n">
-        <v>42.94984831873177</v>
+        <v>27.14188806760576</v>
       </c>
       <c r="E8" t="n">
-        <v>22.96455480691925</v>
+        <v>5.205352255867361</v>
       </c>
       <c r="F8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K8" t="n">
-        <v>8.415911685442907</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L8" t="n">
-        <v>22.51986039522949</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M8" t="n">
-        <v>43.35950445951396</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N8" t="n">
-        <v>65.28609961349601</v>
+        <v>65.28609961349599</v>
       </c>
       <c r="O8" t="n">
-        <v>83.82378169965438</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P8" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q8" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R8" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S8" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T8" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U8" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="V8" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="W8" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="X8" t="n">
-        <v>86.35925704432884</v>
+        <v>86.35925704432881</v>
       </c>
       <c r="Y8" t="n">
-        <v>85.06239103962324</v>
+        <v>85.06239103962321</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.62796184383909</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="C9" t="n">
-        <v>25.62796184383909</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="D9" t="n">
-        <v>25.62796184383909</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="E9" t="n">
-        <v>25.62796184383909</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="F9" t="n">
-        <v>25.62796184383909</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="G9" t="n">
-        <v>25.62796184383909</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="H9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K9" t="n">
         <v>8.19312939818548</v>
@@ -4895,40 +4895,40 @@
         <v>46.04269444771658</v>
       </c>
       <c r="N9" t="n">
-        <v>62.86984279257511</v>
+        <v>69.31731027717052</v>
       </c>
       <c r="O9" t="n">
-        <v>81.90393668038415</v>
+        <v>88.35140416497956</v>
       </c>
       <c r="P9" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R9" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S9" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T9" t="n">
-        <v>70.29166702906198</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U9" t="n">
-        <v>49.37514665095463</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="V9" t="n">
-        <v>25.62796184383909</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="W9" t="n">
-        <v>25.62796184383909</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="X9" t="n">
-        <v>25.62796184383909</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Y9" t="n">
-        <v>25.62796184383909</v>
+        <v>94.0388518361775</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.880777036723551</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="C10" t="n">
-        <v>1.880777036723551</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="D10" t="n">
-        <v>1.880777036723551</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="E10" t="n">
-        <v>1.880777036723551</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="F10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J10" t="n">
-        <v>25.15539286617749</v>
+        <v>25.15539286617748</v>
       </c>
       <c r="K10" t="n">
-        <v>25.15539286617749</v>
+        <v>48.43000869563141</v>
       </c>
       <c r="L10" t="n">
-        <v>25.44491757532877</v>
+        <v>67.83776775810118</v>
       </c>
       <c r="M10" t="n">
-        <v>26.27965177657314</v>
+        <v>68.67250195934555</v>
       </c>
       <c r="N10" t="n">
-        <v>47.48962017726966</v>
+        <v>70.76423600672356</v>
       </c>
       <c r="O10" t="n">
-        <v>70.76423600672359</v>
+        <v>70.76423600672356</v>
       </c>
       <c r="P10" t="n">
-        <v>70.76423600672359</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q10" t="n">
-        <v>94.03885183617753</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R10" t="n">
-        <v>70.29166702906198</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="S10" t="n">
-        <v>49.37514665095463</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="T10" t="n">
-        <v>49.37514665095463</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="U10" t="n">
-        <v>49.37514665095463</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="V10" t="n">
-        <v>49.37514665095463</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="W10" t="n">
-        <v>25.62796184383909</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="X10" t="n">
-        <v>1.880777036723551</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.880777036723551</v>
+        <v>70.29166702906197</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1408.471033874505</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="C11" t="n">
-        <v>1408.471033874505</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D11" t="n">
-        <v>985.1784130595051</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E11" t="n">
-        <v>985.1784130595051</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F11" t="n">
-        <v>718.8438747983129</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G11" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149083</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250306</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303109</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103486</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O11" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R11" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="Y11" t="n">
-        <v>1408.471033874505</v>
+        <v>1535.975759145523</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432383</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607431</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760281</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489653</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318694</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004428</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527476</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>535.835162521935</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>712.4740133525839</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>921.748711833599</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.345475499754</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738643</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.847329510332</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555136</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V12" t="n">
         <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
-        <v>1025.534031643346</v>
+        <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100086</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.363796763301</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>482.7471494744262</v>
+        <v>478.1257479893574</v>
       </c>
       <c r="C13" t="n">
-        <v>310.7745863533422</v>
+        <v>306.1531848682735</v>
       </c>
       <c r="D13" t="n">
-        <v>310.7745863533422</v>
+        <v>306.1531848682735</v>
       </c>
       <c r="E13" t="n">
-        <v>310.7745863533422</v>
+        <v>284.3386723770731</v>
       </c>
       <c r="F13" t="n">
-        <v>310.7745863533422</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H13" t="n">
         <v>112.4768981516335</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
         <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>463.8388611422041</v>
+        <v>258.3167199723227</v>
       </c>
       <c r="L13" t="n">
-        <v>606.7836421246723</v>
+        <v>707.2342751924272</v>
       </c>
       <c r="M13" t="n">
-        <v>1055.701197344777</v>
+        <v>805.2876227700464</v>
       </c>
       <c r="N13" t="n">
-        <v>1152.699903436725</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O13" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973493</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1802.007452933977</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T13" t="n">
-        <v>1562.016618765575</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U13" t="n">
-        <v>1281.874917248079</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V13" t="n">
-        <v>1000.163449856108</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="W13" t="n">
-        <v>725.3110460286211</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="X13" t="n">
-        <v>482.7471494744262</v>
+        <v>894.634485011681</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.7471494744262</v>
+        <v>668.2917167014231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>713.7004241006134</v>
+        <v>924.067709305614</v>
       </c>
       <c r="C14" t="n">
-        <v>286.7996941139135</v>
+        <v>924.067709305614</v>
       </c>
       <c r="D14" t="n">
-        <v>286.7996941139135</v>
+        <v>924.067709305614</v>
       </c>
       <c r="E14" t="n">
-        <v>286.7996941139135</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="F14" t="n">
-        <v>286.7996941139135</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G14" t="n">
-        <v>286.7996941139135</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149078</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250297</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M14" t="n">
         <v>862.6140377103479</v>
@@ -5311,19 +5311,19 @@
         <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1491.038203265894</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>1133.548788392143</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W14" t="n">
-        <v>1133.548788392143</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X14" t="n">
-        <v>1133.548788392143</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="Y14" t="n">
-        <v>1133.548788392143</v>
+        <v>1343.916073597144</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432377</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607425</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760275</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489647</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318689</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
         <v>80.62417733004328</v>
@@ -5354,28 +5354,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527476</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>535.835162521935</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>712.4740133525839</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>921.748711833599</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.474417479231</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453737</v>
@@ -5384,25 +5384,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100081</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633005</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>447.7662341459468</v>
+        <v>284.4494612727175</v>
       </c>
       <c r="C16" t="n">
-        <v>275.7936710248628</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="D16" t="n">
         <v>112.4768981516335</v>
@@ -5439,16 +5439,16 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>463.8388611422041</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>912.7564163623085</v>
+        <v>606.7836421246718</v>
       </c>
       <c r="M16" t="n">
-        <v>1010.809763939928</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N16" t="n">
-        <v>1107.808470031876</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O16" t="n">
         <v>1238.993031259049</v>
@@ -5475,13 +5475,13 @@
         <v>1011.964300841745</v>
       </c>
       <c r="W16" t="n">
-        <v>916.6728990103996</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X16" t="n">
-        <v>674.1090024562047</v>
+        <v>700.9581982950411</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.7662341459468</v>
+        <v>474.6154299847831</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>573.1061653405209</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="C17" t="n">
-        <v>573.1061653405209</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D17" t="n">
-        <v>573.1061653405209</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E17" t="n">
-        <v>147.1292254883784</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F17" t="n">
-        <v>147.1292254883784</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G17" t="n">
         <v>36.27616607839228</v>
@@ -5512,19 +5512,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872656</v>
       </c>
       <c r="J17" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K17" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250297</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303104</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T17" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U17" t="n">
-        <v>1342.315579046524</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V17" t="n">
-        <v>984.8261641727736</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W17" t="n">
-        <v>984.8261641727736</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="X17" t="n">
-        <v>573.1061653405209</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="Y17" t="n">
-        <v>573.1061653405209</v>
+        <v>1749.253343642254</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>375.0902162687934</v>
+        <v>628.9641045014113</v>
       </c>
       <c r="L18" t="n">
-        <v>551.7290670994423</v>
+        <v>805.6029553320602</v>
       </c>
       <c r="M18" t="n">
-        <v>761.0037655804574</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N18" t="n">
-        <v>978.1587474127737</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O18" t="n">
         <v>1427.076302632878</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9027273017577</v>
+        <v>752.9594525451397</v>
       </c>
       <c r="C19" t="n">
-        <v>189.9027273017577</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="D19" t="n">
-        <v>189.9027273017577</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="E19" t="n">
-        <v>189.9027273017577</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="F19" t="n">
-        <v>189.9027273017577</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G19" t="n">
-        <v>173.104676471574</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839228</v>
@@ -5676,19 +5676,19 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>463.8388611422041</v>
+        <v>458.8620717225802</v>
       </c>
       <c r="L19" t="n">
-        <v>912.7564163623085</v>
+        <v>907.7796269426847</v>
       </c>
       <c r="M19" t="n">
-        <v>1010.809763939928</v>
+        <v>1005.832974520304</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.699903436724</v>
+        <v>1102.831680612252</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259049</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P19" t="n">
         <v>1622.490343973492</v>
@@ -5697,28 +5697,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.530066266137</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T19" t="n">
-        <v>1405.539232097734</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="U19" t="n">
-        <v>1405.539232097734</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="V19" t="n">
-        <v>1123.827764705763</v>
+        <v>1375.619449859803</v>
       </c>
       <c r="W19" t="n">
-        <v>848.9753608782762</v>
+        <v>1100.767046032316</v>
       </c>
       <c r="X19" t="n">
-        <v>606.4114643240813</v>
+        <v>979.3022208553976</v>
       </c>
       <c r="Y19" t="n">
-        <v>380.0686960138233</v>
+        <v>752.9594525451397</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.1768960650922</v>
+        <v>459.568786893392</v>
       </c>
       <c r="C20" t="n">
-        <v>36.27616607839228</v>
+        <v>459.568786893392</v>
       </c>
       <c r="D20" t="n">
         <v>36.27616607839228</v>
@@ -5752,16 +5752,16 @@
         <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149078</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250297</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L20" t="n">
-        <v>598.99813723031</v>
+        <v>598.9981372303107</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5782,22 +5782,22 @@
         <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.082529233985</v>
+        <v>1625.169550299049</v>
       </c>
       <c r="U20" t="n">
-        <v>1700.082529233985</v>
+        <v>1625.169550299049</v>
       </c>
       <c r="V20" t="n">
-        <v>1700.082529233985</v>
+        <v>1267.680135425298</v>
       </c>
       <c r="W20" t="n">
-        <v>1700.082529233985</v>
+        <v>871.2887857256449</v>
       </c>
       <c r="X20" t="n">
-        <v>1288.362530401732</v>
+        <v>459.568786893392</v>
       </c>
       <c r="Y20" t="n">
-        <v>883.0252603566223</v>
+        <v>459.568786893392</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.27616607839228</v>
+        <v>306.2292466205049</v>
       </c>
       <c r="C22" t="n">
-        <v>36.27616607839228</v>
+        <v>306.2292466205049</v>
       </c>
       <c r="D22" t="n">
-        <v>36.27616607839228</v>
+        <v>142.9124737472756</v>
       </c>
       <c r="E22" t="n">
-        <v>36.27616607839228</v>
+        <v>142.9124737472756</v>
       </c>
       <c r="F22" t="n">
         <v>36.27616607839228</v>
@@ -5910,25 +5910,25 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K22" t="n">
-        <v>463.838861142204</v>
+        <v>138.6345353799611</v>
       </c>
       <c r="L22" t="n">
-        <v>912.7564163623085</v>
+        <v>587.5520906000656</v>
       </c>
       <c r="M22" t="n">
-        <v>1055.701197344776</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.699903436724</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5937,25 +5937,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.530066266137</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T22" t="n">
-        <v>1405.539232097734</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="U22" t="n">
-        <v>1125.397530580239</v>
+        <v>1521.865751416482</v>
       </c>
       <c r="V22" t="n">
-        <v>843.686063188268</v>
+        <v>1240.15428402451</v>
       </c>
       <c r="W22" t="n">
-        <v>568.833659360781</v>
+        <v>965.3018801970234</v>
       </c>
       <c r="X22" t="n">
-        <v>326.2697628065861</v>
+        <v>722.7379836428285</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.92699449632809</v>
+        <v>496.3952153325705</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1400.29676897895</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="C23" t="n">
-        <v>973.3960389922506</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="D23" t="n">
-        <v>550.1034181772509</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="E23" t="n">
-        <v>124.1264783251085</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="F23" t="n">
-        <v>124.1264783251085</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="G23" t="n">
-        <v>124.1264783251085</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="H23" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I23" t="n">
-        <v>88.80972442833601</v>
+        <v>88.80972442833615</v>
       </c>
       <c r="J23" t="n">
-        <v>232.5080757946358</v>
+        <v>232.508075794636</v>
       </c>
       <c r="K23" t="n">
-        <v>456.1196637528697</v>
+        <v>456.1196637528695</v>
       </c>
       <c r="L23" t="n">
-        <v>739.5261480061537</v>
+        <v>739.5261480061534</v>
       </c>
       <c r="M23" t="n">
         <v>1060.016751906011</v>
       </c>
       <c r="N23" t="n">
-        <v>1386.442972701138</v>
+        <v>1386.442972701139</v>
       </c>
       <c r="O23" t="n">
         <v>1692.511016687425</v>
@@ -6010,31 +6010,31 @@
         <v>1948.126598455679</v>
       </c>
       <c r="Q23" t="n">
-        <v>2132.255183669574</v>
+        <v>2132.255183669575</v>
       </c>
       <c r="R23" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S23" t="n">
-        <v>2225.48240331559</v>
+        <v>2176.559070933243</v>
       </c>
       <c r="T23" t="n">
-        <v>2225.48240331559</v>
+        <v>1964.728164979348</v>
       </c>
       <c r="U23" t="n">
-        <v>2225.48240331559</v>
+        <v>1706.539463045804</v>
       </c>
       <c r="V23" t="n">
-        <v>2225.48240331559</v>
+        <v>1706.539463045804</v>
       </c>
       <c r="W23" t="n">
-        <v>2225.48240331559</v>
+        <v>1706.539463045804</v>
       </c>
       <c r="X23" t="n">
-        <v>2225.48240331559</v>
+        <v>1294.819464213551</v>
       </c>
       <c r="Y23" t="n">
-        <v>1820.145133270481</v>
+        <v>889.4821941684417</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>180.0920858621661</v>
       </c>
       <c r="G24" t="n">
-        <v>87.14992453537704</v>
+        <v>87.14992453537705</v>
       </c>
       <c r="H24" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I24" t="n">
-        <v>89.46722019134666</v>
+        <v>66.00991434693481</v>
       </c>
       <c r="J24" t="n">
-        <v>171.9950737023444</v>
+        <v>349.1836764755466</v>
       </c>
       <c r="K24" t="n">
         <v>502.9370819867503</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>490.3548472233921</v>
+        <v>336.46091764591</v>
       </c>
       <c r="C25" t="n">
-        <v>318.3822841023082</v>
+        <v>216.3714222917514</v>
       </c>
       <c r="D25" t="n">
-        <v>318.3822841023082</v>
+        <v>216.3714222917514</v>
       </c>
       <c r="E25" t="n">
-        <v>318.3822841023082</v>
+        <v>216.3714222917514</v>
       </c>
       <c r="F25" t="n">
-        <v>318.3822841023082</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="G25" t="n">
-        <v>251.7628357130831</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="H25" t="n">
-        <v>116.2523331625564</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I25" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="J25" t="n">
-        <v>88.65602603416792</v>
+        <v>166.5777426823888</v>
       </c>
       <c r="K25" t="n">
-        <v>174.0204825066857</v>
+        <v>283.4266928990019</v>
       </c>
       <c r="L25" t="n">
-        <v>664.5061825555673</v>
+        <v>397.5234993567186</v>
       </c>
       <c r="M25" t="n">
-        <v>1198.870218865134</v>
+        <v>931.8875356662852</v>
       </c>
       <c r="N25" t="n">
-        <v>1716.135512520541</v>
+        <v>1449.152829321692</v>
       </c>
       <c r="O25" t="n">
-        <v>2085.058166818412</v>
+        <v>1933.684669440514</v>
       </c>
       <c r="P25" t="n">
-        <v>2173.371702658466</v>
+        <v>2021.998205280568</v>
       </c>
       <c r="Q25" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="R25" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S25" t="n">
-        <v>2225.48240331559</v>
+        <v>2071.588473738108</v>
       </c>
       <c r="T25" t="n">
-        <v>1986.124967599179</v>
+        <v>1832.231038021697</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.991352019369</v>
+        <v>1552.097422441887</v>
       </c>
       <c r="V25" t="n">
-        <v>1424.279884627398</v>
+        <v>1270.385955049916</v>
       </c>
       <c r="W25" t="n">
-        <v>1149.427480799911</v>
+        <v>995.5335512224285</v>
       </c>
       <c r="X25" t="n">
-        <v>906.8635842457157</v>
+        <v>752.9696546682336</v>
       </c>
       <c r="Y25" t="n">
-        <v>680.5208159354578</v>
+        <v>526.6268863579756</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>589.3918693240408</v>
+        <v>1745.804120530754</v>
       </c>
       <c r="C26" t="n">
-        <v>162.4911393373409</v>
+        <v>1318.903390544054</v>
       </c>
       <c r="D26" t="n">
-        <v>162.4911393373409</v>
+        <v>895.610769729054</v>
       </c>
       <c r="E26" t="n">
-        <v>162.4911393373409</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="F26" t="n">
-        <v>162.4911393373409</v>
+        <v>44.50964806631179</v>
       </c>
       <c r="G26" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631179</v>
       </c>
       <c r="H26" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631179</v>
       </c>
       <c r="I26" t="n">
-        <v>88.80972442833649</v>
+        <v>88.80972442833615</v>
       </c>
       <c r="J26" t="n">
-        <v>232.5080757946362</v>
+        <v>232.508075794636</v>
       </c>
       <c r="K26" t="n">
         <v>456.1196637528695</v>
       </c>
       <c r="L26" t="n">
-        <v>739.5261480061533</v>
+        <v>739.5261480061534</v>
       </c>
       <c r="M26" t="n">
-        <v>1060.016751906011</v>
+        <v>1060.01675190601</v>
       </c>
       <c r="N26" t="n">
         <v>1386.442972701138</v>
       </c>
       <c r="O26" t="n">
-        <v>1692.511016687425</v>
+        <v>1692.511016687424</v>
       </c>
       <c r="P26" t="n">
-        <v>1948.126598455679</v>
+        <v>1948.126598455678</v>
       </c>
       <c r="Q26" t="n">
         <v>2132.255183669574</v>
@@ -6262,16 +6262,16 @@
         <v>2168.458268234084</v>
       </c>
       <c r="V26" t="n">
-        <v>1810.968853360334</v>
+        <v>2168.458268234084</v>
       </c>
       <c r="W26" t="n">
-        <v>1414.577503660681</v>
+        <v>2168.458268234084</v>
       </c>
       <c r="X26" t="n">
-        <v>1414.577503660681</v>
+        <v>2168.458268234084</v>
       </c>
       <c r="Y26" t="n">
-        <v>1009.240233615571</v>
+        <v>2165.652484822283</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>87.14992453537704</v>
       </c>
       <c r="H27" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631179</v>
       </c>
       <c r="I27" t="n">
-        <v>66.00991434693481</v>
+        <v>66.00991434693478</v>
       </c>
       <c r="J27" t="n">
         <v>349.1836764755466</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.447184621185</v>
+        <v>860.7362815920751</v>
       </c>
       <c r="C28" t="n">
-        <v>918.4746215001009</v>
+        <v>688.7637184709911</v>
       </c>
       <c r="D28" t="n">
-        <v>755.1578486268716</v>
+        <v>525.4469455977618</v>
       </c>
       <c r="E28" t="n">
-        <v>588.9496427797251</v>
+        <v>423.6246099385227</v>
       </c>
       <c r="F28" t="n">
-        <v>417.0878685542855</v>
+        <v>251.7628357130831</v>
       </c>
       <c r="G28" t="n">
         <v>251.7628357130831</v>
@@ -6381,19 +6381,19 @@
         <v>116.2523331625564</v>
       </c>
       <c r="I28" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631179</v>
       </c>
       <c r="J28" t="n">
-        <v>139.2997115620175</v>
+        <v>88.65602603416789</v>
       </c>
       <c r="K28" t="n">
-        <v>471.9467771485573</v>
+        <v>174.0204825066856</v>
       </c>
       <c r="L28" t="n">
-        <v>962.432477197439</v>
+        <v>548.8969967346167</v>
       </c>
       <c r="M28" t="n">
-        <v>1083.261033044184</v>
+        <v>1083.261033044183</v>
       </c>
       <c r="N28" t="n">
         <v>1600.526326699591</v>
@@ -6408,28 +6408,28 @@
         <v>2225.48240331559</v>
       </c>
       <c r="R28" t="n">
-        <v>2220.347060294955</v>
+        <v>2225.48240331559</v>
       </c>
       <c r="S28" t="n">
-        <v>2220.347060294955</v>
+        <v>2071.588473738107</v>
       </c>
       <c r="T28" t="n">
-        <v>2220.347060294955</v>
+        <v>1832.231038021696</v>
       </c>
       <c r="U28" t="n">
-        <v>2220.347060294955</v>
+        <v>1552.097422441886</v>
       </c>
       <c r="V28" t="n">
-        <v>2024.37222202519</v>
+        <v>1552.097422441886</v>
       </c>
       <c r="W28" t="n">
-        <v>1749.519818197703</v>
+        <v>1277.245018614399</v>
       </c>
       <c r="X28" t="n">
-        <v>1506.955921643508</v>
+        <v>1277.245018614399</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.61315333325</v>
+        <v>1050.902250304141</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.263072456623</v>
+        <v>894.7029988680115</v>
       </c>
       <c r="C29" t="n">
-        <v>723.362342469923</v>
+        <v>467.8022688813115</v>
       </c>
       <c r="D29" t="n">
-        <v>723.362342469923</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="E29" t="n">
-        <v>723.362342469923</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="F29" t="n">
-        <v>723.362342469923</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="G29" t="n">
-        <v>321.1008734349219</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="H29" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I29" t="n">
-        <v>88.80972442833604</v>
+        <v>88.80972442833627</v>
       </c>
       <c r="J29" t="n">
-        <v>232.5080757946358</v>
+        <v>232.5080757946359</v>
       </c>
       <c r="K29" t="n">
         <v>456.1196637528694</v>
       </c>
       <c r="L29" t="n">
-        <v>739.5261480061538</v>
+        <v>739.5261480061536</v>
       </c>
       <c r="M29" t="n">
         <v>1060.016751906011</v>
       </c>
       <c r="N29" t="n">
-        <v>1386.442972701139</v>
+        <v>1386.442972701138</v>
       </c>
       <c r="O29" t="n">
         <v>1692.511016687425</v>
@@ -6484,31 +6484,31 @@
         <v>1948.126598455679</v>
       </c>
       <c r="Q29" t="n">
-        <v>2132.255183669574</v>
+        <v>2132.255183669575</v>
       </c>
       <c r="R29" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S29" t="n">
-        <v>2225.48240331559</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="T29" t="n">
-        <v>2225.48240331559</v>
+        <v>2077.378048078402</v>
       </c>
       <c r="U29" t="n">
-        <v>2225.48240331559</v>
+        <v>2077.378048078402</v>
       </c>
       <c r="V29" t="n">
-        <v>1867.99298844184</v>
+        <v>1719.888633204651</v>
       </c>
       <c r="W29" t="n">
-        <v>1471.601638742186</v>
+        <v>1719.888633204651</v>
       </c>
       <c r="X29" t="n">
-        <v>1471.601638742186</v>
+        <v>1719.888633204651</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.263072456623</v>
+        <v>1314.551363159542</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>180.0920858621661</v>
       </c>
       <c r="G30" t="n">
-        <v>87.14992453537704</v>
+        <v>87.14992453537705</v>
       </c>
       <c r="H30" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I30" t="n">
-        <v>89.46722019134666</v>
+        <v>66.00991434693481</v>
       </c>
       <c r="J30" t="n">
-        <v>243.7281761906407</v>
+        <v>349.1836764755466</v>
       </c>
       <c r="K30" t="n">
-        <v>397.4815817018444</v>
+        <v>502.9370819867503</v>
       </c>
       <c r="L30" t="n">
-        <v>611.7494226981207</v>
+        <v>717.2049229830266</v>
       </c>
       <c r="M30" t="n">
-        <v>864.9353778576185</v>
+        <v>970.3908781425243</v>
       </c>
       <c r="N30" t="n">
-        <v>1127.163816670675</v>
+        <v>1232.61931695558</v>
       </c>
       <c r="O30" t="n">
-        <v>1363.440890980953</v>
+        <v>1468.896391265858</v>
       </c>
       <c r="P30" t="n">
-        <v>1549.932450405249</v>
+        <v>1655.387950690154</v>
       </c>
       <c r="Q30" t="n">
-        <v>1666.485249679228</v>
+        <v>1771.940749964133</v>
       </c>
       <c r="R30" t="n">
         <v>1816.14847227771</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>331.3255746252741</v>
+        <v>490.3548472233926</v>
       </c>
       <c r="C31" t="n">
-        <v>159.3530115041901</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="D31" t="n">
-        <v>116.2523331625564</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="E31" t="n">
-        <v>116.2523331625564</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="F31" t="n">
-        <v>116.2523331625564</v>
+        <v>146.5205098768691</v>
       </c>
       <c r="G31" t="n">
-        <v>116.2523331625564</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="H31" t="n">
-        <v>116.2523331625564</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I31" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="J31" t="n">
-        <v>166.5777426823888</v>
+        <v>88.65602603416792</v>
       </c>
       <c r="K31" t="n">
-        <v>499.2248082689285</v>
+        <v>174.0204825066857</v>
       </c>
       <c r="L31" t="n">
-        <v>860.502541928494</v>
+        <v>664.5061825555673</v>
       </c>
       <c r="M31" t="n">
-        <v>1394.866578238061</v>
+        <v>785.334738402312</v>
       </c>
       <c r="N31" t="n">
-        <v>1514.098949051588</v>
+        <v>1302.600032057719</v>
       </c>
       <c r="O31" t="n">
-        <v>1620.928464867206</v>
+        <v>1787.131872176541</v>
       </c>
       <c r="P31" t="n">
-        <v>2021.998205280567</v>
+        <v>2173.371702658467</v>
       </c>
       <c r="Q31" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="R31" t="n">
-        <v>2220.347060294955</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S31" t="n">
-        <v>2066.453130717472</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="T31" t="n">
-        <v>1827.095695001061</v>
+        <v>1986.12496759918</v>
       </c>
       <c r="U31" t="n">
-        <v>1546.962079421251</v>
+        <v>1705.991352019369</v>
       </c>
       <c r="V31" t="n">
-        <v>1265.25061202928</v>
+        <v>1424.279884627398</v>
       </c>
       <c r="W31" t="n">
-        <v>990.3982082017926</v>
+        <v>1149.427480799911</v>
       </c>
       <c r="X31" t="n">
-        <v>747.8343116475977</v>
+        <v>906.8635842457162</v>
       </c>
       <c r="Y31" t="n">
-        <v>521.4915433373397</v>
+        <v>680.5208159354582</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1150.263072456623</v>
+        <v>1745.804120530754</v>
       </c>
       <c r="C32" t="n">
-        <v>723.362342469923</v>
+        <v>1318.903390544054</v>
       </c>
       <c r="D32" t="n">
-        <v>723.362342469923</v>
+        <v>895.610769729054</v>
       </c>
       <c r="E32" t="n">
-        <v>723.362342469923</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="F32" t="n">
-        <v>723.362342469923</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="G32" t="n">
-        <v>321.1008734349219</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="H32" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I32" t="n">
-        <v>88.80972442833649</v>
+        <v>88.80972442833627</v>
       </c>
       <c r="J32" t="n">
-        <v>232.5080757946362</v>
+        <v>232.5080757946359</v>
       </c>
       <c r="K32" t="n">
-        <v>456.1196637528695</v>
+        <v>456.1196637528694</v>
       </c>
       <c r="L32" t="n">
-        <v>739.5261480061533</v>
+        <v>739.5261480061536</v>
       </c>
       <c r="M32" t="n">
         <v>1060.016751906011</v>
@@ -6721,31 +6721,31 @@
         <v>1948.126598455679</v>
       </c>
       <c r="Q32" t="n">
-        <v>2132.255183669574</v>
+        <v>2132.255183669575</v>
       </c>
       <c r="R32" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S32" t="n">
-        <v>2225.48240331559</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="T32" t="n">
-        <v>2013.651497361695</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="U32" t="n">
-        <v>1755.462795428151</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="V32" t="n">
-        <v>1397.973380554401</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="W32" t="n">
-        <v>1397.973380554401</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="X32" t="n">
-        <v>1397.973380554401</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="Y32" t="n">
-        <v>1150.263072456623</v>
+        <v>2165.652484822283</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>180.0920858621661</v>
       </c>
       <c r="G33" t="n">
-        <v>87.14992453537704</v>
+        <v>87.14992453537705</v>
       </c>
       <c r="H33" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I33" t="n">
         <v>66.00991434693481</v>
       </c>
       <c r="J33" t="n">
-        <v>148.5377678579326</v>
+        <v>349.1836764755466</v>
       </c>
       <c r="K33" t="n">
-        <v>302.2911733691363</v>
+        <v>502.9370819867503</v>
       </c>
       <c r="L33" t="n">
-        <v>516.5590143654125</v>
+        <v>717.2049229830266</v>
       </c>
       <c r="M33" t="n">
-        <v>769.7449695249104</v>
+        <v>970.3908781425243</v>
       </c>
       <c r="N33" t="n">
-        <v>1031.973408337966</v>
+        <v>1232.61931695558</v>
       </c>
       <c r="O33" t="n">
-        <v>1268.250482648245</v>
+        <v>1468.896391265858</v>
       </c>
       <c r="P33" t="n">
-        <v>1454.74204207254</v>
+        <v>1655.387950690154</v>
       </c>
       <c r="Q33" t="n">
         <v>1771.940749964133</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1006.288407311139</v>
+        <v>595.5971730596068</v>
       </c>
       <c r="C34" t="n">
-        <v>834.3158441900548</v>
+        <v>423.6246099385228</v>
       </c>
       <c r="D34" t="n">
-        <v>670.9990713168255</v>
+        <v>423.6246099385228</v>
       </c>
       <c r="E34" t="n">
-        <v>588.9496427797251</v>
+        <v>423.6246099385228</v>
       </c>
       <c r="F34" t="n">
-        <v>417.0878685542855</v>
+        <v>251.7628357130832</v>
       </c>
       <c r="G34" t="n">
-        <v>251.7628357130831</v>
+        <v>251.7628357130832</v>
       </c>
       <c r="H34" t="n">
         <v>116.2523331625564</v>
       </c>
       <c r="I34" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="J34" t="n">
-        <v>166.5777426823888</v>
+        <v>88.65602603416792</v>
       </c>
       <c r="K34" t="n">
-        <v>499.2248082689285</v>
+        <v>174.0204825066857</v>
       </c>
       <c r="L34" t="n">
-        <v>860.502541928494</v>
+        <v>548.8969967346176</v>
       </c>
       <c r="M34" t="n">
-        <v>1394.866578238061</v>
+        <v>1083.261033044184</v>
       </c>
       <c r="N34" t="n">
-        <v>1514.098949051588</v>
+        <v>1600.526326699591</v>
       </c>
       <c r="O34" t="n">
-        <v>1620.928464867206</v>
+        <v>2085.058166818413</v>
       </c>
       <c r="P34" t="n">
-        <v>2021.998205280567</v>
+        <v>2173.371702658467</v>
       </c>
       <c r="Q34" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="R34" t="n">
-        <v>2220.347060294955</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S34" t="n">
-        <v>2220.347060294955</v>
+        <v>2071.588473738108</v>
       </c>
       <c r="T34" t="n">
-        <v>2220.347060294955</v>
+        <v>1832.231038021697</v>
       </c>
       <c r="U34" t="n">
-        <v>1940.213444715144</v>
+        <v>1811.233677855583</v>
       </c>
       <c r="V34" t="n">
-        <v>1940.213444715144</v>
+        <v>1529.522210463612</v>
       </c>
       <c r="W34" t="n">
-        <v>1665.361040887657</v>
+        <v>1254.669806636125</v>
       </c>
       <c r="X34" t="n">
-        <v>1422.797144333462</v>
+        <v>1012.10591008193</v>
       </c>
       <c r="Y34" t="n">
-        <v>1196.454376023205</v>
+        <v>785.7631417716725</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1343.272633897445</v>
+        <v>1745.804120530754</v>
       </c>
       <c r="C35" t="n">
-        <v>916.3719039107448</v>
+        <v>1318.903390544054</v>
       </c>
       <c r="D35" t="n">
-        <v>916.3719039107448</v>
+        <v>895.610769729054</v>
       </c>
       <c r="E35" t="n">
-        <v>490.3949640586023</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="F35" t="n">
-        <v>490.3949640586023</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="G35" t="n">
-        <v>88.13349502360131</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="H35" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I35" t="n">
         <v>88.80972442833581</v>
@@ -6940,10 +6940,10 @@
         <v>232.5080757946355</v>
       </c>
       <c r="K35" t="n">
-        <v>456.119663752869</v>
+        <v>456.1196637528691</v>
       </c>
       <c r="L35" t="n">
-        <v>739.526148006153</v>
+        <v>739.5261480061531</v>
       </c>
       <c r="M35" t="n">
         <v>1060.01675190601</v>
@@ -6952,37 +6952,37 @@
         <v>1386.442972701138</v>
       </c>
       <c r="O35" t="n">
-        <v>1692.511016687424</v>
+        <v>1692.511016687425</v>
       </c>
       <c r="P35" t="n">
-        <v>1948.126598455678</v>
+        <v>1948.126598455679</v>
       </c>
       <c r="Q35" t="n">
-        <v>2132.255183669574</v>
+        <v>2132.255183669575</v>
       </c>
       <c r="R35" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S35" t="n">
-        <v>2168.458268234084</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.458268234084</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.458268234084</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="V35" t="n">
-        <v>2168.458268234084</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="W35" t="n">
-        <v>2168.458268234084</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="X35" t="n">
-        <v>2168.458268234084</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="Y35" t="n">
-        <v>1763.120998188975</v>
+        <v>2165.652484822283</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>180.0920858621661</v>
       </c>
       <c r="G36" t="n">
-        <v>87.14992453537704</v>
+        <v>87.14992453537705</v>
       </c>
       <c r="H36" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I36" t="n">
         <v>66.00991434693481</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>954.9366820706582</v>
+        <v>674.8701621784166</v>
       </c>
       <c r="C37" t="n">
-        <v>782.9641189495742</v>
+        <v>674.8701621784166</v>
       </c>
       <c r="D37" t="n">
-        <v>619.6473460763449</v>
+        <v>511.5533893051874</v>
       </c>
       <c r="E37" t="n">
-        <v>453.4391402291984</v>
+        <v>345.3451834580409</v>
       </c>
       <c r="F37" t="n">
-        <v>281.5773660037588</v>
+        <v>345.3451834580409</v>
       </c>
       <c r="G37" t="n">
-        <v>116.2523331625564</v>
+        <v>180.0201506168385</v>
       </c>
       <c r="H37" t="n">
-        <v>116.2523331625564</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I37" t="n">
-        <v>44.5096480663118</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="J37" t="n">
-        <v>166.5777426823888</v>
+        <v>88.65602603416792</v>
       </c>
       <c r="K37" t="n">
-        <v>499.2248082689285</v>
+        <v>174.0204825066857</v>
       </c>
       <c r="L37" t="n">
-        <v>613.3216147266453</v>
+        <v>548.8969967346176</v>
       </c>
       <c r="M37" t="n">
-        <v>734.15017057339</v>
+        <v>1083.261033044184</v>
       </c>
       <c r="N37" t="n">
-        <v>1251.415464228797</v>
+        <v>1600.526326699591</v>
       </c>
       <c r="O37" t="n">
-        <v>1735.947304347618</v>
+        <v>2085.058166818413</v>
       </c>
       <c r="P37" t="n">
-        <v>2137.01704476098</v>
+        <v>2173.371702658467</v>
       </c>
       <c r="Q37" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="R37" t="n">
-        <v>2220.347060294955</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S37" t="n">
-        <v>2220.347060294955</v>
+        <v>2071.588473738108</v>
       </c>
       <c r="T37" t="n">
-        <v>1980.989624578544</v>
+        <v>1832.231038021697</v>
       </c>
       <c r="U37" t="n">
-        <v>1980.989624578544</v>
+        <v>1552.097422441887</v>
       </c>
       <c r="V37" t="n">
-        <v>1888.861719474664</v>
+        <v>1270.385955049916</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.009315647177</v>
+        <v>995.5335512224285</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.445419092982</v>
+        <v>752.9696546682336</v>
       </c>
       <c r="Y37" t="n">
-        <v>1145.102650782724</v>
+        <v>752.9696546682336</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2022.395345899364</v>
+        <v>1745.804120530754</v>
       </c>
       <c r="C38" t="n">
-        <v>1595.494615912664</v>
+        <v>1318.903390544054</v>
       </c>
       <c r="D38" t="n">
-        <v>1172.201995097664</v>
+        <v>895.610769729054</v>
       </c>
       <c r="E38" t="n">
-        <v>746.2250552455217</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="F38" t="n">
-        <v>321.1008734349219</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="G38" t="n">
-        <v>321.1008734349219</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="H38" t="n">
-        <v>44.50964806631179</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I38" t="n">
-        <v>88.80972442833601</v>
+        <v>88.80972442833615</v>
       </c>
       <c r="J38" t="n">
-        <v>232.5080757946358</v>
+        <v>232.508075794636</v>
       </c>
       <c r="K38" t="n">
-        <v>456.1196637528692</v>
+        <v>456.1196637528695</v>
       </c>
       <c r="L38" t="n">
-        <v>739.5261480061531</v>
+        <v>739.5261480061534</v>
       </c>
       <c r="M38" t="n">
-        <v>1060.01675190601</v>
+        <v>1060.016751906011</v>
       </c>
       <c r="N38" t="n">
         <v>1386.442972701138</v>
       </c>
       <c r="O38" t="n">
-        <v>1692.511016687424</v>
+        <v>1692.511016687425</v>
       </c>
       <c r="P38" t="n">
-        <v>1948.126598455678</v>
+        <v>1948.126598455679</v>
       </c>
       <c r="Q38" t="n">
-        <v>2132.255183669574</v>
+        <v>2132.255183669575</v>
       </c>
       <c r="R38" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S38" t="n">
-        <v>2168.458268234084</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="T38" t="n">
-        <v>2168.458268234084</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="U38" t="n">
-        <v>2168.458268234084</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="V38" t="n">
-        <v>2168.458268234084</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="W38" t="n">
-        <v>2168.458268234084</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="X38" t="n">
-        <v>2168.458268234084</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="Y38" t="n">
-        <v>2168.458268234084</v>
+        <v>2165.652484822283</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>180.0920858621661</v>
       </c>
       <c r="G39" t="n">
-        <v>87.14992453537704</v>
+        <v>87.14992453537705</v>
       </c>
       <c r="H39" t="n">
-        <v>44.50964806631179</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I39" t="n">
-        <v>89.46722019134663</v>
+        <v>66.00991434693481</v>
       </c>
       <c r="J39" t="n">
-        <v>171.9950737023444</v>
+        <v>349.1836764755466</v>
       </c>
       <c r="K39" t="n">
-        <v>325.7484792135481</v>
+        <v>502.9370819867503</v>
       </c>
       <c r="L39" t="n">
-        <v>540.0163202098244</v>
+        <v>717.2049229830266</v>
       </c>
       <c r="M39" t="n">
-        <v>793.2022753693223</v>
+        <v>970.3908781425243</v>
       </c>
       <c r="N39" t="n">
-        <v>1055.430714182378</v>
+        <v>1232.61931695558</v>
       </c>
       <c r="O39" t="n">
-        <v>1291.707788492656</v>
+        <v>1468.896391265858</v>
       </c>
       <c r="P39" t="n">
-        <v>1549.932450405249</v>
+        <v>1655.387950690154</v>
       </c>
       <c r="Q39" t="n">
-        <v>1666.485249679228</v>
+        <v>1771.940749964133</v>
       </c>
       <c r="R39" t="n">
         <v>1816.14847227771</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>853.877218027591</v>
+        <v>490.3548472233926</v>
       </c>
       <c r="C40" t="n">
-        <v>681.9046549065069</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="D40" t="n">
-        <v>681.9046549065069</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="E40" t="n">
-        <v>588.9496427797251</v>
+        <v>152.1740782551622</v>
       </c>
       <c r="F40" t="n">
-        <v>417.0878685542855</v>
+        <v>152.1740782551622</v>
       </c>
       <c r="G40" t="n">
-        <v>251.7628357130831</v>
+        <v>152.1740782551622</v>
       </c>
       <c r="H40" t="n">
-        <v>116.2523331625564</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I40" t="n">
-        <v>44.50964806631179</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="J40" t="n">
-        <v>88.65602603416789</v>
+        <v>166.5777426823888</v>
       </c>
       <c r="K40" t="n">
-        <v>174.0204825066856</v>
+        <v>499.2248082689285</v>
       </c>
       <c r="L40" t="n">
-        <v>664.5061825555672</v>
+        <v>989.7105083178102</v>
       </c>
       <c r="M40" t="n">
-        <v>1198.870218865134</v>
+        <v>1110.539064164555</v>
       </c>
       <c r="N40" t="n">
-        <v>1716.135512520541</v>
+        <v>1229.771434978082</v>
       </c>
       <c r="O40" t="n">
-        <v>2085.058166818412</v>
+        <v>1620.928464867206</v>
       </c>
       <c r="P40" t="n">
-        <v>2173.371702658466</v>
+        <v>2021.998205280568</v>
       </c>
       <c r="Q40" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="R40" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S40" t="n">
-        <v>2071.588473738107</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="T40" t="n">
-        <v>1832.231038021696</v>
+        <v>1986.12496759918</v>
       </c>
       <c r="U40" t="n">
-        <v>1552.097422441886</v>
+        <v>1705.991352019369</v>
       </c>
       <c r="V40" t="n">
-        <v>1270.385955049915</v>
+        <v>1424.279884627398</v>
       </c>
       <c r="W40" t="n">
-        <v>1270.385955049915</v>
+        <v>1149.427480799911</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.385955049915</v>
+        <v>906.8635842457162</v>
       </c>
       <c r="Y40" t="n">
-        <v>1044.043186739657</v>
+        <v>680.5208159354582</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1956.627362280189</v>
+        <v>1805.63403902406</v>
       </c>
       <c r="C41" t="n">
-        <v>1956.627362280189</v>
+        <v>1378.73330903736</v>
       </c>
       <c r="D41" t="n">
-        <v>1533.334741465189</v>
+        <v>955.4406882223604</v>
       </c>
       <c r="E41" t="n">
-        <v>1107.357801613046</v>
+        <v>529.463748370218</v>
       </c>
       <c r="F41" t="n">
-        <v>682.2336198024466</v>
+        <v>104.3395665596182</v>
       </c>
       <c r="G41" t="n">
-        <v>321.1008734349219</v>
+        <v>44.5096480663118</v>
       </c>
       <c r="H41" t="n">
-        <v>44.50964806631179</v>
+        <v>44.5096480663118</v>
       </c>
       <c r="I41" t="n">
-        <v>88.80972442833581</v>
+        <v>88.80972442833601</v>
       </c>
       <c r="J41" t="n">
-        <v>232.5080757946349</v>
+        <v>232.5080757946358</v>
       </c>
       <c r="K41" t="n">
-        <v>456.1196637528684</v>
+        <v>456.1196637528693</v>
       </c>
       <c r="L41" t="n">
-        <v>739.5261480061524</v>
+        <v>739.5261480061533</v>
       </c>
       <c r="M41" t="n">
-        <v>1060.01675190601</v>
+        <v>1060.016751906011</v>
       </c>
       <c r="N41" t="n">
-        <v>1386.442972701137</v>
+        <v>1386.442972701138</v>
       </c>
       <c r="O41" t="n">
-        <v>1692.511016687424</v>
+        <v>1692.511016687425</v>
       </c>
       <c r="P41" t="n">
-        <v>1948.126598455678</v>
+        <v>1948.126598455679</v>
       </c>
       <c r="Q41" t="n">
-        <v>2132.255183669573</v>
+        <v>2132.255183669574</v>
       </c>
       <c r="R41" t="n">
         <v>2225.48240331559</v>
       </c>
       <c r="S41" t="n">
-        <v>2168.458268234084</v>
+        <v>2225.48240331559</v>
       </c>
       <c r="T41" t="n">
-        <v>1956.627362280189</v>
+        <v>2225.48240331559</v>
       </c>
       <c r="U41" t="n">
-        <v>1956.627362280189</v>
+        <v>2225.48240331559</v>
       </c>
       <c r="V41" t="n">
-        <v>1956.627362280189</v>
+        <v>2225.48240331559</v>
       </c>
       <c r="W41" t="n">
-        <v>1956.627362280189</v>
+        <v>2225.48240331559</v>
       </c>
       <c r="X41" t="n">
-        <v>1956.627362280189</v>
+        <v>2225.48240331559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1956.627362280189</v>
+        <v>2225.48240331559</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>87.14992453537704</v>
       </c>
       <c r="H42" t="n">
-        <v>44.50964806631179</v>
+        <v>44.5096480663118</v>
       </c>
       <c r="I42" t="n">
-        <v>66.00991434693478</v>
+        <v>66.00991434693481</v>
       </c>
       <c r="J42" t="n">
         <v>349.1836764755466</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.9187437775865</v>
+        <v>460.08667050908</v>
       </c>
       <c r="C43" t="n">
-        <v>560.9461806565025</v>
+        <v>288.114107387996</v>
       </c>
       <c r="D43" t="n">
-        <v>397.6294077832732</v>
+        <v>288.114107387996</v>
       </c>
       <c r="E43" t="n">
-        <v>231.4212019361268</v>
+        <v>288.114107387996</v>
       </c>
       <c r="F43" t="n">
-        <v>180.0201506168385</v>
+        <v>116.2523331625564</v>
       </c>
       <c r="G43" t="n">
-        <v>180.0201506168385</v>
+        <v>116.2523331625564</v>
       </c>
       <c r="H43" t="n">
-        <v>44.50964806631179</v>
+        <v>116.2523331625564</v>
       </c>
       <c r="I43" t="n">
-        <v>44.50964806631179</v>
+        <v>44.5096480663118</v>
       </c>
       <c r="J43" t="n">
-        <v>88.65602603416789</v>
+        <v>88.65602603416792</v>
       </c>
       <c r="K43" t="n">
-        <v>174.0204825066856</v>
+        <v>384.2059687885157</v>
       </c>
       <c r="L43" t="n">
-        <v>548.8969967346167</v>
+        <v>498.3027752462325</v>
       </c>
       <c r="M43" t="n">
-        <v>1083.261033044183</v>
+        <v>619.1313310929772</v>
       </c>
       <c r="N43" t="n">
-        <v>1600.526326699591</v>
+        <v>1136.396624748385</v>
       </c>
       <c r="O43" t="n">
-        <v>2085.058166818412</v>
+        <v>1620.928464867206</v>
       </c>
       <c r="P43" t="n">
-        <v>2173.371702658466</v>
+        <v>2021.998205280567</v>
       </c>
       <c r="Q43" t="n">
         <v>2225.48240331559</v>
@@ -7596,25 +7596,25 @@
         <v>2225.48240331559</v>
       </c>
       <c r="S43" t="n">
-        <v>2225.48240331559</v>
+        <v>2195.214226601278</v>
       </c>
       <c r="T43" t="n">
-        <v>1986.124967599179</v>
+        <v>1955.856790884867</v>
       </c>
       <c r="U43" t="n">
-        <v>1705.991352019368</v>
+        <v>1675.723175305057</v>
       </c>
       <c r="V43" t="n">
-        <v>1424.279884627397</v>
+        <v>1394.011707913086</v>
       </c>
       <c r="W43" t="n">
-        <v>1149.42748079991</v>
+        <v>1119.159304085598</v>
       </c>
       <c r="X43" t="n">
-        <v>1149.42748079991</v>
+        <v>876.5954075314037</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.0847124896522</v>
+        <v>650.2526392211457</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1724.772968750755</v>
+        <v>1745.804120530754</v>
       </c>
       <c r="C44" t="n">
-        <v>1297.872238764055</v>
+        <v>1318.903390544054</v>
       </c>
       <c r="D44" t="n">
-        <v>1297.872238764055</v>
+        <v>895.610769729054</v>
       </c>
       <c r="E44" t="n">
-        <v>871.8952989119126</v>
+        <v>469.6338298769116</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7711171013128</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="G44" t="n">
-        <v>44.50964806631179</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="H44" t="n">
-        <v>44.50964806631179</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I44" t="n">
-        <v>88.809724428336</v>
+        <v>88.80972442833615</v>
       </c>
       <c r="J44" t="n">
-        <v>232.5080757946358</v>
+        <v>232.508075794636</v>
       </c>
       <c r="K44" t="n">
-        <v>456.1196637528693</v>
+        <v>456.1196637528695</v>
       </c>
       <c r="L44" t="n">
-        <v>739.5261480061533</v>
+        <v>739.5261480061534</v>
       </c>
       <c r="M44" t="n">
-        <v>1060.016751906011</v>
+        <v>1060.01675190601</v>
       </c>
       <c r="N44" t="n">
         <v>1386.442972701138</v>
@@ -7669,31 +7669,31 @@
         <v>1948.126598455679</v>
       </c>
       <c r="Q44" t="n">
-        <v>2132.255183669574</v>
+        <v>2132.255183669575</v>
       </c>
       <c r="R44" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S44" t="n">
-        <v>2225.48240331559</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="T44" t="n">
-        <v>2013.651497361695</v>
+        <v>2168.458268234085</v>
       </c>
       <c r="U44" t="n">
-        <v>2013.651497361695</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.651497361695</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="W44" t="n">
-        <v>1724.772968750755</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="X44" t="n">
-        <v>1724.772968750755</v>
+        <v>2165.652484822283</v>
       </c>
       <c r="Y44" t="n">
-        <v>1724.772968750755</v>
+        <v>2165.652484822283</v>
       </c>
     </row>
     <row r="45">
@@ -7718,13 +7718,13 @@
         <v>180.0920858621661</v>
       </c>
       <c r="G45" t="n">
-        <v>87.14992453537704</v>
+        <v>87.14992453537705</v>
       </c>
       <c r="H45" t="n">
-        <v>44.50964806631179</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="I45" t="n">
-        <v>66.00991434693478</v>
+        <v>66.00991434693481</v>
       </c>
       <c r="J45" t="n">
         <v>349.1836764755466</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>485.2195042027562</v>
+        <v>490.3548472233926</v>
       </c>
       <c r="C46" t="n">
-        <v>313.2469410816723</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="D46" t="n">
-        <v>216.3714222917514</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="E46" t="n">
-        <v>216.3714222917514</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="F46" t="n">
-        <v>44.50964806631179</v>
+        <v>318.3822841023086</v>
       </c>
       <c r="G46" t="n">
-        <v>44.50964806631179</v>
+        <v>251.7628357130832</v>
       </c>
       <c r="H46" t="n">
-        <v>44.50964806631179</v>
+        <v>116.2523331625564</v>
       </c>
       <c r="I46" t="n">
-        <v>44.50964806631179</v>
+        <v>44.50964806631181</v>
       </c>
       <c r="J46" t="n">
-        <v>166.5777426823888</v>
+        <v>88.65602603416792</v>
       </c>
       <c r="K46" t="n">
-        <v>251.9421991549065</v>
+        <v>174.0204825066857</v>
       </c>
       <c r="L46" t="n">
-        <v>742.4278992037881</v>
+        <v>664.5061825555673</v>
       </c>
       <c r="M46" t="n">
-        <v>931.8875356662843</v>
+        <v>785.334738402312</v>
       </c>
       <c r="N46" t="n">
-        <v>1449.152829321692</v>
+        <v>1302.600032057719</v>
       </c>
       <c r="O46" t="n">
-        <v>1933.684669440513</v>
+        <v>1787.131872176541</v>
       </c>
       <c r="P46" t="n">
-        <v>2021.998205280567</v>
+        <v>2173.371702658467</v>
       </c>
       <c r="Q46" t="n">
-        <v>2225.48240331559</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="R46" t="n">
-        <v>2220.347060294954</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="S46" t="n">
-        <v>2220.347060294954</v>
+        <v>2225.482403315591</v>
       </c>
       <c r="T46" t="n">
-        <v>1980.989624578543</v>
+        <v>1986.12496759918</v>
       </c>
       <c r="U46" t="n">
-        <v>1700.856008998733</v>
+        <v>1705.991352019369</v>
       </c>
       <c r="V46" t="n">
-        <v>1419.144541606762</v>
+        <v>1424.279884627398</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.292137779275</v>
+        <v>1149.427480799911</v>
       </c>
       <c r="X46" t="n">
-        <v>901.7282412250798</v>
+        <v>906.8635842457162</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.3854729148219</v>
+        <v>680.5208159354582</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>2.786362146091513</v>
       </c>
       <c r="L2" t="n">
-        <v>6.379558909162661</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.689305807571515</v>
       </c>
       <c r="P2" t="n">
-        <v>3.508863384304702</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.128025379424045</v>
+        <v>15.03300753842878</v>
       </c>
       <c r="R2" t="n">
         <v>18.74720796782874</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.41484263875958</v>
+        <v>21.39478029437256</v>
       </c>
       <c r="K4" t="n">
         <v>16.43346281027709</v>
       </c>
       <c r="L4" t="n">
-        <v>13.60910376882005</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M4" t="n">
-        <v>4.345987427773778</v>
+        <v>13.32592508338676</v>
       </c>
       <c r="N4" t="n">
-        <v>11.57001603839558</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O4" t="n">
         <v>6.061704061331429</v>
@@ -8157,7 +8157,7 @@
         <v>8.315693914541322</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.86154956246998</v>
+        <v>23.49872379860684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77286693432814</v>
+        <v>28.25508098158583</v>
       </c>
       <c r="K7" t="n">
         <v>4.755254677277748</v>
@@ -8382,16 +8382,16 @@
         <v>1.176308884163518</v>
       </c>
       <c r="M7" t="n">
-        <v>17.58656221108116</v>
+        <v>18.92374087635457</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>17.61722182806913</v>
       </c>
       <c r="O7" t="n">
-        <v>20.99732671642003</v>
+        <v>2.779019446119921</v>
       </c>
       <c r="P7" t="n">
-        <v>23.72509739523674</v>
+        <v>5.506790124936622</v>
       </c>
       <c r="Q7" t="n">
         <v>31.15517979005181</v>
@@ -8613,25 +8613,25 @@
         <v>33.58412498144983</v>
       </c>
       <c r="K10" t="n">
-        <v>3.60747870011792</v>
+        <v>27.11719165916229</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>19.31134783163483</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>19.31134783163485</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>24.89236144328003</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P10" t="n">
-        <v>4.311953536506707</v>
+        <v>27.82166649555109</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.6193425581686</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.5903457215984</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>42.18229085266745</v>
       </c>
       <c r="L13" t="n">
-        <v>50.95854331539999</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M13" t="n">
-        <v>354.408290547965</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>94.06963836310746</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.37539003541869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9090,16 +9090,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362448</v>
+        <v>50.95854331539968</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>45.34488222711978</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>108.990141789937</v>
+        <v>70.37539003541872</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.4382709420381</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>244.7533532266648</v>
       </c>
       <c r="L19" t="n">
         <v>360.0219516362448</v>
@@ -9333,13 +9333,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>45.34488222711983</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>70.37539003541792</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>45.3448822271198</v>
+        <v>120.8910955478398</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>202.6726349672869</v>
       </c>
       <c r="K24" t="n">
-        <v>178.9783866395981</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>31.80251893342967</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9810,13 +9810,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>264.7405439214676</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.15523790691881</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>263.4138462325398</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>72.4576792811074</v>
+        <v>202.6726349672869</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>249.6777042442917</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>300.9356511534063</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>202.6726349672869</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>202.6726349672868</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>249.6777042442917</v>
+        <v>263.4138462325407</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>263.4138462325407</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.72187666412792</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>202.6726349672869</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>72.45767928110737</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>264.7405439214675</v>
+        <v>287.1995091651578</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>212.3085720018486</v>
       </c>
       <c r="L43" t="n">
-        <v>263.4138462325398</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11235,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>69.32432385429436</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>300.9356511534063</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.66994299300174</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>13.65178503121987</v>
+        <v>22.32499244369914</v>
       </c>
       <c r="D2" t="n">
         <v>10.0797569512367</v>
       </c>
       <c r="E2" t="n">
-        <v>15.09153871121565</v>
+        <v>12.73723279800802</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>11.89300233688076</v>
       </c>
       <c r="G2" t="n">
         <v>0.03641654712531528</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.585037643152521</v>
+        <v>4.413415416532747</v>
       </c>
       <c r="D5" t="n">
         <v>0.8413873365495768</v>
       </c>
       <c r="E5" t="n">
-        <v>3.498863183320896</v>
+        <v>11.98875497684404</v>
       </c>
       <c r="F5" t="n">
-        <v>2.654632722193629</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23029,10 +23029,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.93172987692661</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>17.58161052554137</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>192.5970885651197</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>157.2017471139134</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.632988972596</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>142.9497564223866</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>102.9640562513313</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>362.2425127256637</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>29.15770880305698</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23563,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
         <v>154.9126128011615</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>177.7653919761803</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>204.3460958566283</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>404.0840026001894</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>288.821501258612</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
         <v>277.176001558223</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>147.1884719598912</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
         <v>277.3402845023203</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>119.8880806635039</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>162.4657023875765</v>
+        <v>88.30185324198985</v>
       </c>
       <c r="U20" t="n">
         <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.2499888911885</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>64.57321189099075</v>
       </c>
       <c r="G22" t="n">
         <v>163.8185422817731</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.238854344651</v>
       </c>
       <c r="H23" t="n">
-        <v>195.0046511587153</v>
+        <v>273.825313114924</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>56.4538937306908</v>
+        <v>8.019794672166505</v>
       </c>
       <c r="T23" t="n">
-        <v>209.7125968943562</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6068149142082</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24271,7 +24271,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>51.36423708925614</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>97.71852860745754</v>
+        <v>163.6717825127903</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.1553975250214</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.02525824528217</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>5.083989590429127</v>
       </c>
       <c r="S25" t="n">
-        <v>152.3549902817076</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>281.4371779863321</v>
+        <v>398.238854344651</v>
       </c>
       <c r="H26" t="n">
         <v>273.825313114924</v>
@@ -24502,16 +24502,16 @@
         <v>255.6068149142082</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>398.5061717669762</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.74201148602832</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6717825127903</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.083989590429127</v>
       </c>
       <c r="S28" t="n">
-        <v>152.3549902817076</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9638613592469</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3322794240122</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>84.87926283098463</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.238854344651</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>273.825313114924</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.4538937306908</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.7125968943562</v>
+        <v>119.54317894023</v>
       </c>
       <c r="U29" t="n">
         <v>255.6068149142082</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>83.15871672195073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.0139335862796</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6717825127903</v>
+        <v>62.68102932033865</v>
       </c>
       <c r="H31" t="n">
         <v>134.1553975250214</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.02525824528217</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.083989590429127</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.3549902817076</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.238854344651</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>273.825313114924</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>56.4538937306908</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.7125968943562</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6068149142082</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>389.6497106249733</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>156.0506923278585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>83.31718953694556</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6717825127903</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.083989590429127</v>
       </c>
       <c r="S34" t="n">
-        <v>152.3549902817076</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9638613592469</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>256.5448928595598</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.238854344651</v>
       </c>
       <c r="H35" t="n">
-        <v>230.6377046272074</v>
+        <v>273.825313114924</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>404.8250732662469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.9458114600262</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.1553975250214</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.02525824528217</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.083989590429127</v>
       </c>
       <c r="S37" t="n">
-        <v>152.3549902817076</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3322794240122</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>187.6877266652102</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>271.0475875372419</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>398.238854344651</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>273.825313114924</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>209.7125968943562</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6068149142082</v>
+        <v>252.829089336525</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25557,19 +25557,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>72.52066178316093</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6717825127903</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>27.56761163805957</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.02525824528217</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>5.083989590429127</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.3549902817076</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>40.71743544080158</v>
+        <v>339.0072350362776</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>273.825313114924</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>56.4538937306908</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.7125968943562</v>
       </c>
       <c r="U41" t="n">
         <v>255.6068149142082</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>119.2561156770898</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.6717825127903</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.1553975250214</v>
       </c>
       <c r="I43" t="n">
-        <v>71.02525824528217</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>5.083989590429127</v>
       </c>
       <c r="S43" t="n">
-        <v>152.3549902817076</v>
+        <v>122.3894953345386</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.238854344651</v>
       </c>
       <c r="H44" t="n">
         <v>273.825313114924</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>56.4538937306908</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.7125968943562</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6068149142082</v>
+        <v>252.829089336525</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>106.4376928778264</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.77684154247531</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6717825127903</v>
+        <v>97.71852860745712</v>
       </c>
       <c r="H46" t="n">
-        <v>134.1553975250214</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.02525824528217</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.083989590429127</v>
       </c>
       <c r="S46" t="n">
         <v>152.3549902817076</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>685487.0767258813</v>
+        <v>685487.0767258814</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434563.4365973485</v>
+        <v>434563.4365973487</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434563.4365973485</v>
+        <v>434563.4365973484</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>434563.4365973485</v>
+        <v>434563.4365973487</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434563.4365973484</v>
+        <v>434563.4365973485</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434563.4365973485</v>
+        <v>434563.4365973487</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331517.3170603747</v>
+        <v>331517.3170603746</v>
       </c>
       <c r="C2" t="n">
-        <v>333159.9420056638</v>
+        <v>333159.942005664</v>
       </c>
       <c r="D2" t="n">
-        <v>334099.8237926648</v>
+        <v>334099.8237926649</v>
       </c>
       <c r="E2" t="n">
-        <v>176834.6750523114</v>
+        <v>176834.6750523112</v>
       </c>
       <c r="F2" t="n">
+        <v>176834.6750523112</v>
+      </c>
+      <c r="G2" t="n">
         <v>176834.6750523113</v>
       </c>
-      <c r="G2" t="n">
-        <v>176834.6750523114</v>
-      </c>
       <c r="H2" t="n">
-        <v>176834.6750523113</v>
+        <v>176834.6750523112</v>
       </c>
       <c r="I2" t="n">
-        <v>201419.6892941114</v>
+        <v>201419.6892941115</v>
       </c>
       <c r="J2" t="n">
         <v>201419.6892941114</v>
       </c>
       <c r="K2" t="n">
-        <v>201419.6892941113</v>
+        <v>201419.6892941115</v>
       </c>
       <c r="L2" t="n">
-        <v>201419.6892941113</v>
+        <v>201419.6892941115</v>
       </c>
       <c r="M2" t="n">
-        <v>201419.6892941114</v>
+        <v>201419.6892941115</v>
       </c>
       <c r="N2" t="n">
-        <v>201419.6892941114</v>
+        <v>201419.6892941115</v>
       </c>
       <c r="O2" t="n">
         <v>201419.6892941114</v>
       </c>
       <c r="P2" t="n">
-        <v>201419.6892941114</v>
+        <v>201419.6892941115</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>65152.53623014429</v>
       </c>
       <c r="C3" t="n">
-        <v>14712.35220613626</v>
+        <v>14712.35220613628</v>
       </c>
       <c r="D3" t="n">
-        <v>6335.473445957286</v>
+        <v>6335.473445957283</v>
       </c>
       <c r="E3" t="n">
         <v>407474.446004412</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>88630.64640874771</v>
+        <v>88630.64640874774</v>
       </c>
       <c r="J3" t="n">
-        <v>2349.546807965197</v>
+        <v>2349.546807965137</v>
       </c>
       <c r="K3" t="n">
-        <v>2377.660710992796</v>
+        <v>2377.6607109928</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157169976</v>
+        <v>1339.207157169974</v>
       </c>
       <c r="M3" t="n">
         <v>107143.3566342502</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306624.9095176452</v>
+        <v>306624.9095176453</v>
       </c>
       <c r="C4" t="n">
         <v>303929.7395458287</v>
@@ -26426,7 +26426,7 @@
         <v>302876.737755432</v>
       </c>
       <c r="E4" t="n">
-        <v>26579.92458602682</v>
+        <v>26579.92458602681</v>
       </c>
       <c r="F4" t="n">
         <v>26579.92458602681</v>
@@ -26438,28 +26438,28 @@
         <v>26579.92458602679</v>
       </c>
       <c r="I4" t="n">
-        <v>23422.84121916968</v>
+        <v>23422.84121916969</v>
       </c>
       <c r="J4" t="n">
         <v>23422.84121916968</v>
       </c>
       <c r="K4" t="n">
+        <v>23422.84121916969</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23422.84121916969</v>
+      </c>
+      <c r="M4" t="n">
         <v>23422.84121916968</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>23422.84121916969</v>
+      </c>
+      <c r="O4" t="n">
         <v>23422.84121916968</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>23422.84121916969</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23422.84121916967</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23422.84121916967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23422.84121916968</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>36863.06036917747</v>
       </c>
       <c r="E5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="H5" t="n">
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>44980.93931289</v>
+        <v>44980.93931289001</v>
       </c>
       <c r="J5" t="n">
         <v>44980.93931289</v>
       </c>
       <c r="K5" t="n">
-        <v>44980.93931289</v>
+        <v>44980.93931289001</v>
       </c>
       <c r="L5" t="n">
-        <v>44980.93931289</v>
+        <v>44980.93931289001</v>
       </c>
       <c r="M5" t="n">
-        <v>44980.93931289</v>
+        <v>44980.93931289001</v>
       </c>
       <c r="N5" t="n">
-        <v>44980.93931289</v>
+        <v>44980.93931289001</v>
       </c>
       <c r="O5" t="n">
         <v>44980.93931289</v>
       </c>
       <c r="P5" t="n">
-        <v>44980.93931289</v>
+        <v>44980.93931289001</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75839.58524590137</v>
+        <v>-75854.31227653651</v>
       </c>
       <c r="C6" t="n">
-        <v>-21904.06287695606</v>
+        <v>-21911.6480600027</v>
       </c>
       <c r="D6" t="n">
-        <v>-11975.44777790199</v>
+        <v>-11978.94651839652</v>
       </c>
       <c r="E6" t="n">
-        <v>-294168.996351169</v>
+        <v>-294856.256607926</v>
       </c>
       <c r="F6" t="n">
-        <v>113305.4496532429</v>
+        <v>112618.1893964859</v>
       </c>
       <c r="G6" t="n">
-        <v>113305.4496532431</v>
+        <v>112618.1893964859</v>
       </c>
       <c r="H6" t="n">
-        <v>113305.4496532429</v>
+        <v>112618.1893964859</v>
       </c>
       <c r="I6" t="n">
-        <v>44385.26235330405</v>
+        <v>43804.89346281575</v>
       </c>
       <c r="J6" t="n">
-        <v>130666.3619540865</v>
+        <v>130085.9930635983</v>
       </c>
       <c r="K6" t="n">
-        <v>130638.2480510589</v>
+        <v>130057.8791605708</v>
       </c>
       <c r="L6" t="n">
-        <v>131676.7016048817</v>
+        <v>131096.3327143935</v>
       </c>
       <c r="M6" t="n">
-        <v>25872.55212780155</v>
+        <v>25292.18323731333</v>
       </c>
       <c r="N6" t="n">
-        <v>133015.9087620517</v>
+        <v>132435.5398715635</v>
       </c>
       <c r="O6" t="n">
-        <v>133015.9087620517</v>
+        <v>132435.5398715634</v>
       </c>
       <c r="P6" t="n">
-        <v>133015.9087620517</v>
+        <v>132435.5398715635</v>
       </c>
     </row>
   </sheetData>
@@ -26795,10 +26795,10 @@
         <v>18.21830727030011</v>
       </c>
       <c r="D4" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>453.4520759799035</v>
@@ -26810,28 +26810,28 @@
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
+        <v>556.3706008288976</v>
+      </c>
+      <c r="J4" t="n">
+        <v>556.3706008288974</v>
+      </c>
+      <c r="K4" t="n">
+        <v>556.3706008288976</v>
+      </c>
+      <c r="L4" t="n">
+        <v>556.3706008288976</v>
+      </c>
+      <c r="M4" t="n">
+        <v>556.3706008288976</v>
+      </c>
+      <c r="N4" t="n">
+        <v>556.3706008288976</v>
+      </c>
+      <c r="O4" t="n">
         <v>556.3706008288975</v>
       </c>
-      <c r="J4" t="n">
-        <v>556.3706008288975</v>
-      </c>
-      <c r="K4" t="n">
-        <v>556.3706008288975</v>
-      </c>
-      <c r="L4" t="n">
-        <v>556.3706008288975</v>
-      </c>
-      <c r="M4" t="n">
-        <v>556.3706008288975</v>
-      </c>
-      <c r="N4" t="n">
-        <v>556.3706008288974</v>
-      </c>
-      <c r="O4" t="n">
-        <v>556.3706008288974</v>
-      </c>
       <c r="P4" t="n">
-        <v>556.3706008288974</v>
+        <v>556.3706008288976</v>
       </c>
     </row>
   </sheetData>
@@ -26962,7 +26962,7 @@
         <v>64.4897407809798</v>
       </c>
       <c r="C3" t="n">
-        <v>12.87906878877681</v>
+        <v>12.87906878877682</v>
       </c>
       <c r="D3" t="n">
         <v>5.478429937930315</v>
@@ -27017,7 +27017,7 @@
         <v>9.238369614687127</v>
       </c>
       <c r="D4" t="n">
-        <v>5.29140568874427</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="E4" t="n">
         <v>429.9423630208591</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>102.918524848994</v>
+        <v>102.9185248489941</v>
       </c>
       <c r="J4" t="n">
-        <v>8.979937655612957</v>
+        <v>8.97993765561273</v>
       </c>
       <c r="K4" t="n">
-        <v>9.238369614687127</v>
+        <v>9.238369614687141</v>
       </c>
       <c r="L4" t="n">
-        <v>5.29140568874427</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
         <v>429.9423630208591</v>
@@ -27263,7 +27263,7 @@
         <v>9.238369614687127</v>
       </c>
       <c r="L4" t="n">
-        <v>5.29140568874427</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
         <v>429.9423630208591</v>
@@ -27463,7 +27463,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8920298128039</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
         <v>103.6549143897921</v>
@@ -27472,7 +27472,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>92.97452028251483</v>
+        <v>85.06499119545092</v>
       </c>
       <c r="H3" t="n">
         <v>42.52271154404281</v>
@@ -27557,7 +27557,7 @@
         <v>141.3243555367009</v>
       </c>
       <c r="I4" t="n">
-        <v>86.29369799522722</v>
+        <v>95.27363565084021</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>41.33927213211291</v>
+        <v>32.35933447649992</v>
       </c>
       <c r="S4" t="n">
         <v>166.4070276113493</v>
       </c>
       <c r="T4" t="n">
-        <v>232.499537042622</v>
+        <v>231.4291284740729</v>
       </c>
       <c r="U4" t="n">
         <v>268.3963231058942</v>
       </c>
       <c r="V4" t="n">
-        <v>269.9144150624384</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>264.1943507021482</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -27697,7 +27697,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>100.2841594039899</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
@@ -27706,13 +27706,13 @@
         <v>85.43660711949202</v>
       </c>
       <c r="F6" t="n">
-        <v>74.49106474362476</v>
+        <v>76.66268697024454</v>
       </c>
       <c r="G6" t="n">
-        <v>92.94681813455406</v>
+        <v>74.72851086425395</v>
       </c>
       <c r="H6" t="n">
-        <v>33.01679750036618</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>77.41990205371728</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T6" t="n">
         <v>139.7903633642173</v>
@@ -27779,10 +27779,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>143.4652978741969</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>148.4994387449946</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27791,10 +27791,10 @@
         <v>164.4548824832565</v>
       </c>
       <c r="H7" t="n">
-        <v>125.0711831278497</v>
+        <v>141.1178681715301</v>
       </c>
       <c r="I7" t="n">
-        <v>76.35690281409298</v>
+        <v>94.57521008439309</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>166.0022870397414</v>
       </c>
       <c r="T7" t="n">
-        <v>240.3098339603297</v>
+        <v>222.0915266900296</v>
       </c>
       <c r="U7" t="n">
         <v>259.1566866975558</v>
       </c>
       <c r="V7" t="n">
-        <v>260.6760454477513</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -27934,16 +27934,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>116.3308444476703</v>
+        <v>92.82113148862588</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8015588998678</v>
+        <v>79.29184594082344</v>
       </c>
       <c r="E9" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>92.70937201392488</v>
+        <v>72.0020168395986</v>
       </c>
       <c r="G9" t="n">
         <v>92.93503434185737</v>
@@ -27985,13 +27985,13 @@
         <v>77.20102327270656</v>
       </c>
       <c r="T9" t="n">
-        <v>116.2331534512771</v>
+        <v>139.7428664103214</v>
       </c>
       <c r="U9" t="n">
-        <v>162.2014352792653</v>
+        <v>182.9087904535916</v>
       </c>
       <c r="V9" t="n">
-        <v>179.413694513082</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -28016,13 +28016,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>138.1738921854526</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>141.0364108296306</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>149.4358013088589</v>
       </c>
       <c r="G10" t="n">
         <v>164.4450033473029</v>
@@ -28061,7 +28061,7 @@
         <v>16.34109706319487</v>
       </c>
       <c r="S10" t="n">
-        <v>145.1227654688411</v>
+        <v>165.8301206431674</v>
       </c>
       <c r="T10" t="n">
         <v>240.2676231067096</v>
@@ -28073,10 +28073,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>248.5941668301677</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>216.6285446296085</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -31132,19 +31132,19 @@
         <v>13.10541043550081</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333333</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>30.11853412606043</v>
       </c>
       <c r="M3" t="n">
-        <v>28.37297541757256</v>
+        <v>32.07671816794097</v>
       </c>
       <c r="N3" t="n">
         <v>30.32296586915465</v>
       </c>
       <c r="O3" t="n">
-        <v>32.1518273778352</v>
+        <v>28.44808462746681</v>
       </c>
       <c r="P3" t="n">
         <v>26.48824843511603</v>
@@ -31378,10 +31378,10 @@
         <v>41.31508778262809</v>
       </c>
       <c r="N6" t="n">
-        <v>39.56133548384177</v>
+        <v>30.74023446979464</v>
       </c>
       <c r="O6" t="n">
-        <v>30.77348212492067</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P6" t="n">
         <v>31.77814368913268</v>
@@ -31530,10 +31530,10 @@
         <v>42.36574690462687</v>
       </c>
       <c r="L8" t="n">
-        <v>52.55845527079119</v>
+        <v>52.55845527079118</v>
       </c>
       <c r="M8" t="n">
-        <v>58.48140841891109</v>
+        <v>58.48140841891108</v>
       </c>
       <c r="N8" t="n">
         <v>59.4276987475592</v>
@@ -31615,13 +31615,13 @@
         <v>45.15174553168937</v>
       </c>
       <c r="N9" t="n">
-        <v>38.3401477538028</v>
+        <v>44.85274117258604</v>
       </c>
       <c r="O9" t="n">
         <v>42.3982471846556</v>
       </c>
       <c r="P9" t="n">
-        <v>34.02833126118561</v>
+        <v>27.51573784240234</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -31758,7 +31758,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I11" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J11" t="n">
         <v>146.801178249406</v>
@@ -31773,7 +31773,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N11" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
         <v>291.4251699938981</v>
@@ -31782,16 +31782,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R11" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S11" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I12" t="n">
         <v>31.86273349432573</v>
@@ -31843,7 +31843,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L12" t="n">
         <v>200.9381683613497</v>
@@ -31852,7 +31852,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O12" t="n">
         <v>220.1856947600876</v>
@@ -31864,16 +31864,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T12" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J13" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L13" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M13" t="n">
         <v>121.6192253234244</v>
@@ -31937,16 +31937,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R13" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S13" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
         <v>3.315028469640403</v>
@@ -31995,7 +31995,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,7 +32010,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
         <v>291.4251699938981</v>
@@ -32019,16 +32019,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
         <v>31.86273349432573</v>
@@ -32080,7 +32080,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
@@ -32089,7 +32089,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,19 +32150,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,16 +32174,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
         <v>3.315028469640403</v>
@@ -32232,7 +32232,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J17" t="n">
         <v>146.801178249406</v>
@@ -32247,7 +32247,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N17" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
         <v>291.4251699938981</v>
@@ -32256,16 +32256,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R17" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S17" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
         <v>31.86273349432573</v>
@@ -32317,7 +32317,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L18" t="n">
         <v>200.9381683613497</v>
@@ -32326,7 +32326,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O18" t="n">
         <v>220.1856947600876</v>
@@ -32338,16 +32338,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,19 +32387,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677272</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596672</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M19" t="n">
         <v>121.6192253234244</v>
@@ -32411,16 +32411,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S19" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
         <v>3.315028469640403</v>
@@ -34146,7 +34146,7 @@
         <v>367.0030781830599</v>
       </c>
       <c r="O41" t="n">
-        <v>346.5505997462124</v>
+        <v>346.5505997462125</v>
       </c>
       <c r="P41" t="n">
         <v>295.7729191519019</v>
@@ -34389,7 +34389,7 @@
         <v>295.7729191519019</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.1131445176237</v>
+        <v>222.1131445176238</v>
       </c>
       <c r="R44" t="n">
         <v>129.2015586281459</v>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.979937655612986</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M2" t="n">
         <v>8.091688641907758</v>
@@ -34713,13 +34713,13 @@
         <v>8.979937655612986</v>
       </c>
       <c r="O2" t="n">
-        <v>6.290631848041471</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="P2" t="n">
-        <v>3.214729057413591</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.904982159004737</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>7.603447411830871</v>
       </c>
       <c r="M3" t="n">
-        <v>5.276194905244585</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="N3" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="O3" t="n">
-        <v>8.979937655612986</v>
+        <v>5.276194905244587</v>
       </c>
       <c r="P3" t="n">
         <v>4.717407230287364</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8.979937655612986</v>
       </c>
       <c r="K4" t="n">
         <v>8.979937655612986</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>8.979937655612986</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>8.617111891749836</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8.979937655612986</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>18.21830727030011</v>
       </c>
       <c r="N6" t="n">
-        <v>18.21830727030011</v>
+        <v>9.397206256252973</v>
       </c>
       <c r="O6" t="n">
-        <v>7.601592402698445</v>
+        <v>16.42269341674558</v>
       </c>
       <c r="P6" t="n">
         <v>10.00730248430402</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.48221404725768</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -35102,16 +35102,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>16.8811286050267</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6010854422309855</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O7" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>18.21830727030011</v>
@@ -35178,7 +35178,7 @@
         <v>6.601146109817527</v>
       </c>
       <c r="L8" t="n">
-        <v>14.24641283816826</v>
+        <v>14.24641283816825</v>
       </c>
       <c r="M8" t="n">
         <v>21.05014551947927</v>
@@ -35263,13 +35263,13 @@
         <v>22.05496501936139</v>
       </c>
       <c r="N9" t="n">
-        <v>16.99711954026114</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="O9" t="n">
         <v>19.22635746243337</v>
       </c>
       <c r="P9" t="n">
-        <v>12.25749005635694</v>
+        <v>5.744896637573681</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2924492011629134</v>
+        <v>19.60379703279774</v>
       </c>
       <c r="M10" t="n">
         <v>0.8431658598427987</v>
       </c>
       <c r="N10" t="n">
-        <v>21.42421050575405</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O10" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J11" t="n">
         <v>117.3812187638195</v>
@@ -35421,7 +35421,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
         <v>254.034210637874</v>
@@ -35433,7 +35433,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R11" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
@@ -35494,10 +35494,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
         <v>219.3484664972891</v>
@@ -35506,13 +35506,13 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>295.9748992312003</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R12" t="n">
-        <v>33.78553351613295</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>318.9563201597417</v>
+        <v>111.3581977659222</v>
       </c>
       <c r="L13" t="n">
-        <v>144.3886676590587</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799036</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N13" t="n">
-        <v>97.97849100196763</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O13" t="n">
-        <v>87.16477557810539</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P13" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920424</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35658,7 +35658,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
         <v>254.034210637874</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
         <v>361.8756844398183</v>
@@ -35731,10 +35731,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
@@ -35743,10 +35743,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>249.017229116999</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.3845535096019</v>
+        <v>165.7599435450206</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>318.9563201597417</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
+        <v>144.3886676590584</v>
+      </c>
+      <c r="M16" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="M16" t="n">
-        <v>99.04378543193862</v>
-      </c>
       <c r="N16" t="n">
-        <v>97.97849100196763</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O16" t="n">
-        <v>132.5096578052252</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P16" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920424</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J17" t="n">
         <v>117.3812187638195</v>
@@ -35895,7 +35895,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
         <v>254.034210637874</v>
@@ -35907,7 +35907,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>236.0291575184624</v>
+        <v>197.414405763944</v>
       </c>
       <c r="L18" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>453.4520759799035</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.3845535096019</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36044,25 +36044,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597417</v>
+        <v>313.9292601399196</v>
       </c>
       <c r="L19" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="M19" t="n">
-        <v>99.04378543193862</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N19" t="n">
-        <v>143.3233732290875</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>87.16477557810539</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920424</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>289.723856532707</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378654</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9563201597416</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L22" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>144.3886676590584</v>
+        <v>219.9348809797784</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O22" t="n">
-        <v>87.16477557810538</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>45.41168901518671</v>
+        <v>21.71744068749798</v>
       </c>
       <c r="J24" t="n">
-        <v>83.36146819292703</v>
+        <v>286.0341031602139</v>
       </c>
       <c r="K24" t="n">
-        <v>334.2848568529352</v>
+        <v>155.3064702133371</v>
       </c>
       <c r="L24" t="n">
         <v>216.4321626225013</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>44.59230097763243</v>
+        <v>123.301105672805</v>
       </c>
       <c r="K25" t="n">
-        <v>86.22672370961385</v>
+        <v>118.0292426430435</v>
       </c>
       <c r="L25" t="n">
-        <v>495.4401010594764</v>
+        <v>115.2492994522391</v>
       </c>
       <c r="M25" t="n">
         <v>539.761652837946</v>
@@ -36530,13 +36530,13 @@
         <v>522.4901956115225</v>
       </c>
       <c r="O25" t="n">
-        <v>372.6491457554253</v>
+        <v>489.4261011301226</v>
       </c>
       <c r="P25" t="n">
         <v>89.20559175763033</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.63707137083193</v>
+        <v>205.5395939747704</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>95.74753888455125</v>
+        <v>44.59230097763243</v>
       </c>
       <c r="K28" t="n">
-        <v>336.0071369561008</v>
+        <v>86.22672370961385</v>
       </c>
       <c r="L28" t="n">
-        <v>495.4401010594764</v>
+        <v>378.6631456847788</v>
       </c>
       <c r="M28" t="n">
-        <v>122.0490463098432</v>
+        <v>539.761652837946</v>
       </c>
       <c r="N28" t="n">
         <v>522.4901956115225</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>45.41168901518671</v>
+        <v>21.71744068749798</v>
       </c>
       <c r="J30" t="n">
-        <v>155.8191474740344</v>
+        <v>286.0341031602139</v>
       </c>
       <c r="K30" t="n">
         <v>155.3064702133371</v>
@@ -36934,7 +36934,7 @@
         <v>117.7301002767465</v>
       </c>
       <c r="R30" t="n">
-        <v>151.1749723216996</v>
+        <v>44.6542649632089</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>123.301105672805</v>
+        <v>44.59230097763243</v>
       </c>
       <c r="K31" t="n">
-        <v>336.0071369561008</v>
+        <v>86.22672370961385</v>
       </c>
       <c r="L31" t="n">
-        <v>364.9270036965308</v>
+        <v>495.4401010594764</v>
       </c>
       <c r="M31" t="n">
-        <v>539.761652837946</v>
+        <v>122.0490463098432</v>
       </c>
       <c r="N31" t="n">
-        <v>120.436738195482</v>
+        <v>522.4901956115225</v>
       </c>
       <c r="O31" t="n">
-        <v>107.9086018339576</v>
+        <v>489.4261011301226</v>
       </c>
       <c r="P31" t="n">
-        <v>405.1209499124865</v>
+        <v>390.1412429110366</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.5395939747704</v>
+        <v>52.63707137083193</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>21.71744068749798</v>
       </c>
       <c r="J33" t="n">
-        <v>83.36146819292703</v>
+        <v>286.0341031602139</v>
       </c>
       <c r="K33" t="n">
         <v>155.3064702133371</v>
@@ -37168,7 +37168,7 @@
         <v>188.3753125497938</v>
       </c>
       <c r="Q33" t="n">
-        <v>320.4027352440332</v>
+        <v>117.7301002767465</v>
       </c>
       <c r="R33" t="n">
         <v>44.6542649632089</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>123.301105672805</v>
+        <v>44.59230097763243</v>
       </c>
       <c r="K34" t="n">
-        <v>336.0071369561008</v>
+        <v>86.22672370961385</v>
       </c>
       <c r="L34" t="n">
-        <v>364.9270036965308</v>
+        <v>378.6631456847797</v>
       </c>
       <c r="M34" t="n">
         <v>539.761652837946</v>
       </c>
       <c r="N34" t="n">
-        <v>120.436738195482</v>
+        <v>522.4901956115225</v>
       </c>
       <c r="O34" t="n">
-        <v>107.9086018339576</v>
+        <v>489.4261011301226</v>
       </c>
       <c r="P34" t="n">
-        <v>405.1209499124865</v>
+        <v>89.20559175763033</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.5395939747704</v>
+        <v>52.63707137083193</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>123.301105672805</v>
+        <v>44.59230097763243</v>
       </c>
       <c r="K37" t="n">
-        <v>336.0071369561008</v>
+        <v>86.22672370961385</v>
       </c>
       <c r="L37" t="n">
-        <v>115.2492994522391</v>
+        <v>378.6631456847797</v>
       </c>
       <c r="M37" t="n">
-        <v>122.0490463098432</v>
+        <v>539.761652837946</v>
       </c>
       <c r="N37" t="n">
         <v>522.4901956115225</v>
@@ -37481,10 +37481,10 @@
         <v>489.4261011301226</v>
       </c>
       <c r="P37" t="n">
-        <v>405.1209499124865</v>
+        <v>89.20559175763033</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.35894803495985</v>
+        <v>52.63707137083193</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>45.41168901518671</v>
+        <v>21.71744068749798</v>
       </c>
       <c r="J39" t="n">
-        <v>83.36146819292703</v>
+        <v>286.0341031602139</v>
       </c>
       <c r="K39" t="n">
         <v>155.3064702133371</v>
@@ -37639,13 +37639,13 @@
         <v>238.6637114245233</v>
       </c>
       <c r="P39" t="n">
-        <v>260.8329918309012</v>
+        <v>188.3753125497938</v>
       </c>
       <c r="Q39" t="n">
         <v>117.7301002767465</v>
       </c>
       <c r="R39" t="n">
-        <v>151.1749723216996</v>
+        <v>44.6542649632089</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>44.59230097763243</v>
+        <v>123.301105672805</v>
       </c>
       <c r="K40" t="n">
-        <v>86.22672370961385</v>
+        <v>336.0071369561008</v>
       </c>
       <c r="L40" t="n">
         <v>495.4401010594764</v>
       </c>
       <c r="M40" t="n">
-        <v>539.761652837946</v>
+        <v>122.0490463098432</v>
       </c>
       <c r="N40" t="n">
-        <v>522.4901956115225</v>
+        <v>120.436738195482</v>
       </c>
       <c r="O40" t="n">
-        <v>372.6491457554251</v>
+        <v>395.1081109991154</v>
       </c>
       <c r="P40" t="n">
-        <v>89.20559175763033</v>
+        <v>405.1209499124865</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.63707137083193</v>
+        <v>205.5395939747704</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>329.7234553486139</v>
       </c>
       <c r="O41" t="n">
-        <v>309.1596403901883</v>
+        <v>309.1596403901884</v>
       </c>
       <c r="P41" t="n">
         <v>258.1975573416706</v>
@@ -37940,13 +37940,13 @@
         <v>44.59230097763243</v>
       </c>
       <c r="K43" t="n">
-        <v>86.22672370961385</v>
+        <v>298.5352957114625</v>
       </c>
       <c r="L43" t="n">
-        <v>378.6631456847788</v>
+        <v>115.2492994522391</v>
       </c>
       <c r="M43" t="n">
-        <v>539.761652837946</v>
+        <v>122.0490463098432</v>
       </c>
       <c r="N43" t="n">
         <v>522.4901956115225</v>
@@ -37955,10 +37955,10 @@
         <v>489.4261011301226</v>
       </c>
       <c r="P43" t="n">
-        <v>89.20559175763033</v>
+        <v>405.1209499124865</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.63707137083193</v>
+        <v>205.5395939747704</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>258.1975573416706</v>
       </c>
       <c r="Q44" t="n">
-        <v>185.9884699130256</v>
+        <v>185.9884699130258</v>
       </c>
       <c r="R44" t="n">
         <v>94.16890873334941</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>123.301105672805</v>
+        <v>44.59230097763243</v>
       </c>
       <c r="K46" t="n">
         <v>86.22672370961385</v>
@@ -38183,7 +38183,7 @@
         <v>495.4401010594764</v>
       </c>
       <c r="M46" t="n">
-        <v>191.3733701641376</v>
+        <v>122.0490463098432</v>
       </c>
       <c r="N46" t="n">
         <v>522.4901956115225</v>
@@ -38192,10 +38192,10 @@
         <v>489.4261011301226</v>
       </c>
       <c r="P46" t="n">
-        <v>89.20559175763033</v>
+        <v>390.1412429110366</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.5395939747704</v>
+        <v>52.63707137083193</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
